--- a/TEST/alt1-schedule.xlsx
+++ b/TEST/alt1-schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="140" windowWidth="23920" windowHeight="15320" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="840" windowWidth="23920" windowHeight="15420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2416,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="P23" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
